--- a/3a.1.PlasticsAndCompositesEngineering/8_FinalTerm/CauseEffectCompilation.xlsx
+++ b/3a.1.PlasticsAndCompositesEngineering/8_FinalTerm/CauseEffectCompilation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_d08\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01212611_itesm_mx/Documents/Documents/MNT_ITESM_courses/3a.1.PlasticsAndCompositesEngineering/8_FinalTerm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="8_{3543B509-ADE6-441A-AAF1-2D4CA3E76EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AFF53FBC-A84C-4CCD-A16F-9A4482FD293C}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="8_{3543B509-ADE6-441A-AAF1-2D4CA3E76EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{60DA6D6C-E8C1-4BBA-9E39-BDDE96C96FFE}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="3225" windowWidth="20685" windowHeight="11835" xr2:uid="{DB3E3740-E930-45AD-AE3C-4F4684730B06}"/>
+    <workbookView xWindow="8460" yWindow="1155" windowWidth="20685" windowHeight="11835" xr2:uid="{DB3E3740-E930-45AD-AE3C-4F4684730B06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="74">
   <si>
     <t>Plastics and Composites Engineering</t>
   </si>
@@ -114,15 +114,9 @@
     <t>viscosity's shear thinning behavior</t>
   </si>
   <si>
-    <t>branch density</t>
-  </si>
-  <si>
     <t>viscosity</t>
   </si>
   <si>
-    <t>shouldn't viscosity increase?</t>
-  </si>
-  <si>
     <t>entanglement</t>
   </si>
   <si>
@@ -247,6 +241,24 @@
   </si>
   <si>
     <t>relaxation modulus</t>
+  </si>
+  <si>
+    <t>crystall content</t>
+  </si>
+  <si>
+    <t>difficulty to shear</t>
+  </si>
+  <si>
+    <t>deformation time</t>
+  </si>
+  <si>
+    <t>molecular weight</t>
+  </si>
+  <si>
+    <t>humidity</t>
+  </si>
+  <si>
+    <t>viscoelasticity</t>
   </si>
 </sst>
 </file>
@@ -796,8 +808,8 @@
   <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G37" sqref="G37"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>18</v>
@@ -1088,16 +1100,13 @@
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1111,13 +1120,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1131,13 +1140,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1151,13 +1160,13 @@
         <v>12</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1171,13 +1180,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1188,16 +1197,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1208,16 +1217,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1237,10 +1246,10 @@
         <v>9</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1248,19 +1257,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1268,19 +1277,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1288,19 +1297,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1308,19 +1317,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1328,19 +1337,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1348,19 +1357,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1368,19 +1377,19 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1388,19 +1397,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1408,19 +1417,19 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1428,19 +1437,19 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1448,19 +1457,19 @@
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1468,19 +1477,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1488,19 +1497,19 @@
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1508,22 +1517,22 @@
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1537,13 +1546,13 @@
         <v>9</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1557,13 +1566,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1577,28 +1586,73 @@
         <v>9</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>36</v>
       </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>37</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>38</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1983,15 +2037,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000FDFDB931CEC1A4D9173FDD6F623054F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f31d27728cc3f5d8bc0ebea293483bad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e2309a97-5dbe-4782-af0a-c6fa888d645b" xmlns:ns4="faf185f4-fa7c-4454-b7fc-1060ac3b9dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4875a9bdfac96ec451fdfd88f66794e" ns3:_="" ns4:_="">
     <xsd:import namespace="e2309a97-5dbe-4782-af0a-c6fa888d645b"/>
@@ -2214,6 +2259,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{570E4CEA-8FBA-4B91-A78D-89E239A293F5}">
   <ds:schemaRefs>
@@ -2224,14 +2278,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C32259CD-D2A1-4BA7-BCD2-3D5C2FFAF372}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{821F291D-B562-4450-BE78-56AFB86F2C75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2248,4 +2294,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C32259CD-D2A1-4BA7-BCD2-3D5C2FFAF372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/3a.1.PlasticsAndCompositesEngineering/8_FinalTerm/CauseEffectCompilation.xlsx
+++ b/3a.1.PlasticsAndCompositesEngineering/8_FinalTerm/CauseEffectCompilation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01212611_itesm_mx/Documents/Documents/MNT_ITESM_courses/3a.1.PlasticsAndCompositesEngineering/8_FinalTerm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_121e\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="8_{3543B509-ADE6-441A-AAF1-2D4CA3E76EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{60DA6D6C-E8C1-4BBA-9E39-BDDE96C96FFE}"/>
+  <xr:revisionPtr revIDLastSave="310" documentId="8_{3543B509-ADE6-441A-AAF1-2D4CA3E76EE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5F0F97C1-E1FC-4D42-A904-669F50D21FC0}"/>
   <bookViews>
     <workbookView xWindow="8460" yWindow="1155" windowWidth="20685" windowHeight="11835" xr2:uid="{DB3E3740-E930-45AD-AE3C-4F4684730B06}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$3:$F$3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -126,12 +126,15 @@
     <t>velocity</t>
   </si>
   <si>
+    <t>viscoelasticity</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
     <t>elasticity</t>
   </si>
   <si>
-    <t>temperature</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -249,16 +252,13 @@
     <t>difficulty to shear</t>
   </si>
   <si>
+    <t>molecular weight</t>
+  </si>
+  <si>
     <t>deformation time</t>
   </si>
   <si>
-    <t>molecular weight</t>
-  </si>
-  <si>
     <t>humidity</t>
-  </si>
-  <si>
-    <t>viscoelasticity</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,6 +468,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -809,7 +812,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,43 +821,43 @@
     <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="6" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="40.7109375" style="8" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" s="11" customFormat="1" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
@@ -867,10 +870,10 @@
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -890,7 +893,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -910,7 +913,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -930,7 +933,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -950,7 +953,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -970,7 +973,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -990,7 +993,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1010,7 +1013,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1030,7 +1033,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="10">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1050,7 +1053,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="10">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1070,7 +1073,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="10">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1090,7 +1093,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="10">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1110,7 +1113,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="10">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1130,7 +1133,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="10">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1150,7 +1153,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="10">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1166,11 +1169,11 @@
         <v>9</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="10">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1186,21 +1189,21 @@
         <v>9</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="10">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>9</v>
@@ -1210,17 +1213,17 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="10">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>12</v>
@@ -1230,7 +1233,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="10">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1246,118 +1249,118 @@
         <v>9</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="10">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="10">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="10">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="10">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="10">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>12</v>
@@ -1369,174 +1372,174 @@
         <v>9</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="10">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="10">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="10">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="10">
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="10">
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>31</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>32</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E36" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="10">
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1546,17 +1549,17 @@
         <v>9</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="10">
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1566,17 +1569,17 @@
         <v>9</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="10">
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1596,7 +1599,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="10">
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1606,17 +1609,17 @@
         <v>9</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="10">
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1632,11 +1635,11 @@
         <v>9</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="10">
         <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1646,7 +1649,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>12</v>
@@ -1656,324 +1659,317 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="10">
         <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="10">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="10">
         <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="10">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="10">
         <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="10">
         <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="10">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="10">
         <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="10">
         <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54" s="10">
         <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="10">
         <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56" s="10">
         <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="A57" s="10">
         <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58" s="10">
         <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="A59" s="10">
         <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A60" s="10">
         <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="A61" s="10">
         <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="A62" s="10">
         <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+      <c r="A63" s="10">
         <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="A64" s="10">
         <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65" s="10">
         <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="A66" s="10">
         <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="A67" s="10">
         <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68" s="10">
         <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="A69" s="10">
         <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="A70" s="10">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="A71" s="10">
         <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="A72" s="10">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+      <c r="A73" s="10">
         <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+      <c r="A74" s="10">
         <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+      <c r="A75" s="10">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+      <c r="A76" s="10">
         <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+      <c r="A77" s="10">
         <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+      <c r="A78" s="10">
         <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+      <c r="A79" s="10">
         <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+      <c r="A80" s="10">
         <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+      <c r="A81" s="10">
         <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+      <c r="A82" s="10">
         <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
+      <c r="A83" s="10">
         <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+      <c r="A84" s="10">
         <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+      <c r="A85" s="10">
         <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
+      <c r="A86" s="10">
         <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+      <c r="A87" s="10">
         <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+      <c r="A88" s="10">
         <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+      <c r="A89" s="10">
         <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+      <c r="A90" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+      <c r="A91" s="10">
         <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+      <c r="A92" s="10">
         <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+      <c r="A93" s="10">
         <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+      <c r="A94" s="10">
         <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+      <c r="A95" s="10">
         <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
+      <c r="A96" s="10">
         <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+      <c r="A97" s="10">
         <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
+      <c r="A98" s="10">
         <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+      <c r="A99" s="10">
         <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
+      <c r="A100" s="10">
         <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+      <c r="A101" s="10">
         <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
+      <c r="A102" s="10">
         <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+      <c r="A103" s="10">
         <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
+      <c r="A104" s="10">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G104" xr:uid="{A1344E5C-161E-40EF-8E98-C64C6C6BEDFA}">
-    <filterColumn colId="0" showButton="0"/>
-    <filterColumn colId="1" showButton="0"/>
-    <filterColumn colId="2" showButton="0"/>
-    <filterColumn colId="3" showButton="0"/>
-    <filterColumn colId="4" showButton="0"/>
-    <filterColumn colId="5" showButton="0"/>
-  </autoFilter>
+  <autoFilter ref="C3:F3" xr:uid="{1333D625-F77D-47E3-AB85-D1957B8FF87F}"/>
   <mergeCells count="6">
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A2:A3"/>
@@ -2004,7 +2000,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,12 +2027,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000FDFDB931CEC1A4D9173FDD6F623054F" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f31d27728cc3f5d8bc0ebea293483bad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e2309a97-5dbe-4782-af0a-c6fa888d645b" xmlns:ns4="faf185f4-fa7c-4454-b7fc-1060ac3b9dc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4875a9bdfac96ec451fdfd88f66794e" ns3:_="" ns4:_="">
     <xsd:import namespace="e2309a97-5dbe-4782-af0a-c6fa888d645b"/>
@@ -2259,6 +2249,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2269,15 +2265,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{570E4CEA-8FBA-4B91-A78D-89E239A293F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{821F291D-B562-4450-BE78-56AFB86F2C75}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2296,6 +2283,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{570E4CEA-8FBA-4B91-A78D-89E239A293F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C32259CD-D2A1-4BA7-BCD2-3D5C2FFAF372}">
   <ds:schemaRefs>
